--- a/testData/testdataexcel.xlsx
+++ b/testData/testdataexcel.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="26">
   <si>
     <t>Top Five Car Washing Services</t>
   </si>
